--- a/Intermediate I/Week 3/workbook/W3_V3 ManageNamedRanges.xlsx
+++ b/Intermediate I/Week 3/workbook/W3_V3 ManageNamedRanges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate I\Week 3\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C92C86-57EE-49B9-A9B6-5298ABA6E5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,6 @@
     <definedName name="Department">Staff!$H$4:$H$38</definedName>
     <definedName name="Email">Staff!$E$4:$E$38</definedName>
     <definedName name="Emp_ID">Staff!$A$4:$A$38</definedName>
-    <definedName name="EmpID">Staff!$A$4:$A$38</definedName>
     <definedName name="Extension">Staff!$K$4:$K$38</definedName>
     <definedName name="First">Staff!$C$4:$C$38</definedName>
     <definedName name="Floor">Staff!$J$4:$J$38</definedName>
@@ -35,10 +35,18 @@
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
     <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -554,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1043,32 +1051,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
-    <col min="8" max="8" width="17.69140625" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
-    <col min="10" max="10" width="10.4609375" customWidth="1"/>
-    <col min="11" max="11" width="12.765625" customWidth="1"/>
-    <col min="12" max="13" width="14.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" customWidth="1"/>
-    <col min="15" max="15" width="11.07421875" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="16" t="s">
         <v>117</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1156,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.405555555555555</v>
+        <v>19.372222222222224</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1179,7 +1187,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1209,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.333333333333332</v>
+        <v>19.3</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>80</v>
@@ -1232,7 +1240,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.794444444444444</v>
+        <v>17.761111111111113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -1285,7 +1293,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1307,7 +1315,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.180555555555555</v>
+        <v>16.147222222222222</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
@@ -1338,7 +1346,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -1360,7 +1368,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.95</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
@@ -1391,7 +1399,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1413,7 +1421,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.416666666666666</v>
+        <v>14.383333333333333</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1444,7 +1452,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1466,7 +1474,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.263888888888889</v>
+        <v>14.230555555555556</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1497,7 +1505,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -1519,7 +1527,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.652777777777779</v>
+        <v>13.619444444444444</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1550,7 +1558,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1572,7 +1580,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2055555555555557</v>
+        <v>12.172222222222222</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
@@ -1603,7 +1611,7 @@
         <v>5238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -1625,7 +1633,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8361111111111104</v>
+        <v>11.802777777777777</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1656,7 +1664,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1678,7 +1686,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5388888888888888</v>
+        <v>10.505555555555556</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
@@ -1709,7 +1717,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1731,7 +1739,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3777777777777782</v>
+        <v>10.344444444444445</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -1762,7 +1770,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1784,7 +1792,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.35</v>
+        <v>9.3166666666666664</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
@@ -1815,7 +1823,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
@@ -1837,7 +1845,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0222222222222221</v>
+        <v>8.9888888888888889</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>72</v>
@@ -1868,7 +1876,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1890,7 +1898,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2527777777777782</v>
+        <v>8.219444444444445</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
@@ -1921,7 +1929,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -1943,7 +1951,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7611111111111111</v>
+        <v>7.7277777777777779</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -1974,7 +1982,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6638888888888888</v>
+        <v>7.6305555555555555</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>80</v>
@@ -2027,7 +2035,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2049,7 +2057,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1388888888888893</v>
+        <v>7.1055555555555552</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -2080,7 +2088,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2102,7 +2110,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0805555555555557</v>
+        <v>6.0472222222222225</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -2133,7 +2141,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2155,7 +2163,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7944444444444443</v>
+        <v>5.7611111111111111</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -2186,7 +2194,7 @@
         <v>5652</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2208,7 +2216,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7666666666666666</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>72</v>
@@ -2239,7 +2247,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2261,7 +2269,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6222222222222222</v>
+        <v>5.5888888888888886</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>72</v>
@@ -2292,7 +2300,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2314,7 +2322,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5305555555555554</v>
+        <v>5.4972222222222218</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2345,7 +2353,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2367,7 +2375,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4944444444444445</v>
+        <v>5.4611111111111112</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>72</v>
@@ -2398,7 +2406,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2420,7 +2428,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1694444444444443</v>
+        <v>5.1361111111111111</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
@@ -2451,7 +2459,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2473,7 +2481,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.875</v>
+        <v>4.8416666666666668</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2504,7 +2512,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2526,7 +2534,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8722222222222222</v>
+        <v>4.8388888888888886</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -2557,7 +2565,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -2579,7 +2587,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6222222222222222</v>
+        <v>4.5888888888888886</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>72</v>
@@ -2610,7 +2618,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2632,7 +2640,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6138888888888889</v>
+        <v>4.5805555555555557</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
@@ -2663,7 +2671,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2685,7 +2693,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4861111111111112</v>
+        <v>4.4527777777777775</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>80</v>
@@ -2716,7 +2724,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -2738,7 +2746,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.45</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -2769,7 +2777,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -2791,7 +2799,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61111111111111116</v>
+        <v>3.5777777777777779</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>22</v>
@@ -2822,7 +2830,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -2844,7 +2852,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52777777777777779</v>
+        <v>3.4944444444444445</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>72</v>
@@ -2875,7 +2883,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -2897,7 +2905,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4638888888888886</v>
+        <v>10.430555555555555</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>33</v>
@@ -2928,7 +2936,7 @@
         <v>8676</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -2950,7 +2958,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10555555555555556</v>
+        <v>3.0722222222222224</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>35</v>
@@ -2982,7 +2990,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,46 +2999,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="12"/>
     </row>
-    <row r="5" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:2" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>162</v>
       </c>
